--- a/model/data/beerwiser/xlsx/beerwiser.xlsx
+++ b/model/data/beerwiser/xlsx/beerwiser.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdijk004/Documents/tRBS/open source/trbs/model/data/beerwiser/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mverdaasdo001/Documents/RBS_open_source_test/trbs/model/data/beerwiser/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468B641F-C12C-FB44-9437-884644042C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAE3F05-47B4-0F4A-A6D7-56EE2674AC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="60">
   <si>
     <t>configuration</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>squeezed *</t>
+  </si>
+  <si>
+    <t>strategic_challenge</t>
+  </si>
+  <si>
+    <t>How to ensure a sustainable production process?</t>
   </si>
 </sst>
 </file>
@@ -565,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -587,6 +593,14 @@
       </c>
       <c r="B2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1265,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/model/data/beerwiser/xlsx/beerwiser.xlsx
+++ b/model/data/beerwiser/xlsx/beerwiser.xlsx
@@ -1,34 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mverdaasdo001/Documents/RBS_open_source_test/trbs/model/data/beerwiser/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAE3F05-47B4-0F4A-A6D7-56EE2674AC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16C4FE7-C3D0-4248-B580-F728DB032DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
-    <sheet name="key_outputs" sheetId="2" r:id="rId2"/>
-    <sheet name="decision_makers_options" sheetId="3" r:id="rId3"/>
-    <sheet name="scenarios" sheetId="4" r:id="rId4"/>
-    <sheet name="fixed_inputs" sheetId="5" r:id="rId5"/>
-    <sheet name="dependencies" sheetId="7" r:id="rId6"/>
-    <sheet name="theme_weights" sheetId="8" r:id="rId7"/>
-    <sheet name="key_output_weights" sheetId="9" r:id="rId8"/>
-    <sheet name="scenario_weights" sheetId="10" r:id="rId9"/>
+    <sheet name="case_text_elements" sheetId="11" r:id="rId2"/>
+    <sheet name="key_outputs" sheetId="2" r:id="rId3"/>
+    <sheet name="decision_makers_options" sheetId="3" r:id="rId4"/>
+    <sheet name="scenarios" sheetId="4" r:id="rId5"/>
+    <sheet name="fixed_inputs" sheetId="5" r:id="rId6"/>
+    <sheet name="dependencies" sheetId="7" r:id="rId7"/>
+    <sheet name="theme_weights" sheetId="8" r:id="rId8"/>
+    <sheet name="key_output_weights" sheetId="9" r:id="rId9"/>
+    <sheet name="scenario_weights" sheetId="10" r:id="rId10"/>
+    <sheet name="generic_text_elements" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="88">
   <si>
     <t>configuration</t>
   </si>
@@ -208,13 +210,97 @@
   </si>
   <si>
     <t>How to ensure a sustainable production process?</t>
+  </si>
+  <si>
+    <t>Report of the performed Beerwiser case</t>
+  </si>
+  <si>
+    <t>Strategic Challenge</t>
+  </si>
+  <si>
+    <t>title_key_outputs</t>
+  </si>
+  <si>
+    <t>Key outputs</t>
+  </si>
+  <si>
+    <t>Decision makers options (DMOs)</t>
+  </si>
+  <si>
+    <t>title_scenarios</t>
+  </si>
+  <si>
+    <t>Scenarios</t>
+  </si>
+  <si>
+    <t>Dependency graph</t>
+  </si>
+  <si>
+    <t>title_dmo</t>
+  </si>
+  <si>
+    <t>intro_key_outputs</t>
+  </si>
+  <si>
+    <t>intro_dmo</t>
+  </si>
+  <si>
+    <t>intro_scenarios</t>
+  </si>
+  <si>
+    <t>The outputs upon which the decision makers will base their decision. Key outputs are often referred to as KPIs. Key outputs are grouped into themes.</t>
+  </si>
+  <si>
+    <t>Decision makers options are formulated by assigning a single value to all internal variable inputs. These inputs can be formulated and determined by the decision makers.</t>
+  </si>
+  <si>
+    <t>Each external variable input can be thought of as a single aspect of external uncertainty affecting the outcome of the decision in scope. A scenario is defined by assigning a single value to all external variable inputs.</t>
+  </si>
+  <si>
+    <t>title_front_page</t>
+  </si>
+  <si>
+    <t>title_strategic_challenge</t>
+  </si>
+  <si>
+    <t>title_dependency_graph</t>
+  </si>
+  <si>
+    <t>title_weighted_graph</t>
+  </si>
+  <si>
+    <t>title_fixed_inputs</t>
+  </si>
+  <si>
+    <t>Fixed inputs</t>
+  </si>
+  <si>
+    <t>intro_fixed_inputs</t>
+  </si>
+  <si>
+    <t>The inputs which only takes one value for all scenarios.</t>
+  </si>
+  <si>
+    <t>intro_dependency_graph</t>
+  </si>
+  <si>
+    <t>intro_weighted_graph</t>
+  </si>
+  <si>
+    <t>Resulting appreciations of different DMOs for scenario:</t>
+  </si>
+  <si>
+    <t>generic_text_element</t>
+  </si>
+  <si>
+    <t>case_text_element</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +314,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -237,7 +337,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -260,15 +360,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -571,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -595,20 +715,225 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF62BA5-6C93-644F-B465-3698819BDF5D}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2547F3F4-3657-994E-9214-3EF841319E63}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -712,13 +1037,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -804,12 +1127,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -896,12 +1219,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -959,7 +1282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -1181,7 +1504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1228,7 +1551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1273,51 +1596,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/model/data/beerwiser/xlsx/beerwiser.xlsx
+++ b/model/data/beerwiser/xlsx/beerwiser.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mverdaasdo001/Documents/RBS_open_source_test/trbs/model/data/beerwiser/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16C4FE7-C3D0-4248-B580-F728DB032DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8AAB97-BB9D-E54F-AA4C-412BE7225C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20340" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
@@ -212,9 +212,6 @@
     <t>How to ensure a sustainable production process?</t>
   </si>
   <si>
-    <t>Report of the performed Beerwiser case</t>
-  </si>
-  <si>
     <t>Strategic Challenge</t>
   </si>
   <si>
@@ -287,13 +284,16 @@
     <t>intro_weighted_graph</t>
   </si>
   <si>
-    <t>Resulting appreciations of different DMOs for scenario:</t>
-  </si>
-  <si>
     <t>generic_text_element</t>
   </si>
   <si>
     <t>case_text_element</t>
+  </si>
+  <si>
+    <t>Report of the Beerwiser case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resulting appreciations of different DMOs for scenario: </t>
   </si>
 </sst>
 </file>
@@ -771,15 +771,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF62BA5-6C93-644F-B465-3698819BDF5D}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -787,101 +787,101 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="4"/>
     </row>
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2547F3F4-3657-994E-9214-3EF841319E63}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -906,7 +906,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
